--- a/Decoration Budget/谢辉装修/工费预算锦绣天地.xlsx
+++ b/Decoration Budget/谢辉装修/工费预算锦绣天地.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13668"/>
   </bookViews>
   <sheets>
     <sheet name="瓷砖预算" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -341,7 +341,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,63 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,37 +410,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,8 +430,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,187 +522,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +777,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -792,15 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -812,41 +821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,8 +843,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,133 +894,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,19 +1610,19 @@
   <sheetPr/>
   <dimension ref="A1:IA37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.75" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.62962962962963" style="23" customWidth="1"/>
+    <col min="2" max="2" width="36.3333333333333" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.3796296296296" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.3796296296296" style="26" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" style="23" customWidth="1"/>
+    <col min="6" max="6" width="18.2222222222222" style="23" customWidth="1"/>
+    <col min="7" max="7" width="32.1296296296296" style="27" customWidth="1"/>
     <col min="8" max="10" width="23.75" style="28" customWidth="1"/>
     <col min="11" max="16381" width="23.75" style="23"/>
     <col min="16382" max="16384" width="23.75" style="29"/>
@@ -2529,15 +2529,15 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.025" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.0277777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -2569,7 +2569,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1561.5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>238.5</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -2695,7 +2695,7 @@
         <v>2687.5</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2741,7 +2741,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A20" s="11">
         <v>6</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2876,7 +2876,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1228.5</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A24" s="11">
         <v>2</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A25" s="11">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A26" s="11">
         <v>4</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A27" s="11">
         <v>5</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>277.5</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -2990,7 +2990,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="29" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>696.15</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A31" s="11">
         <v>2</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A32" s="11">
         <v>3</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A33" s="11">
         <v>4</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.75" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="17.4" spans="1:6">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3132,7 +3132,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
